--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N2">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q2">
-        <v>1.356834581676222</v>
+        <v>1.798409995156445</v>
       </c>
       <c r="R2">
-        <v>12.211511235086</v>
+        <v>16.185689956408</v>
       </c>
       <c r="S2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="T2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>118.340805</v>
       </c>
       <c r="O3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q3">
         <v>14.20777351566833</v>
@@ -635,10 +635,10 @@
         <v>127.869961641015</v>
       </c>
       <c r="S3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="T3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N4">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q4">
-        <v>9.484652367588778</v>
+        <v>10.47464819018389</v>
       </c>
       <c r="R4">
-        <v>85.36187130829899</v>
+        <v>94.27183371165498</v>
       </c>
       <c r="S4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="T4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N5">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q5">
-        <v>0.421073450020111</v>
+        <v>0.047135654829</v>
       </c>
       <c r="R5">
-        <v>3.789661050180999</v>
+        <v>0.424220893461</v>
       </c>
       <c r="S5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="T5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
     </row>
   </sheetData>
